--- a/biology/Botanique/Usnée/Usnée.xlsx
+++ b/biology/Botanique/Usnée/Usnée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Usn%C3%A9e</t>
+          <t>Usnée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Usnea
 Usnea (de l'arabe ushna أشنة « mousse, lichen ») est un genre de lichens de type fruticuleux de la famille des Parmeliaceae. Ce sont les usnées.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Usn%C3%A9e</t>
+          <t>Usnée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le thalle possède des ramifications dotées de fortes capacités d'extension (jusqu'à 110 % de leur longueur initiale en conditions humides). Cette caractéristique provient des propriétés élastiques du cordon médullaire central fibreux qui permettent au lichen de résister à des stress mécaniques importants (notamment le vent)[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le thalle possède des ramifications dotées de fortes capacités d'extension (jusqu'à 110 % de leur longueur initiale en conditions humides). Cette caractéristique provient des propriétés élastiques du cordon médullaire central fibreux qui permettent au lichen de résister à des stress mécaniques importants (notamment le vent). 
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Usn%C3%A9e</t>
+          <t>Usnée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Usnea aculeata
